--- a/REGULAR/OJT/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/OJT/ZALDIVIA, MIRIAM F..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1978DC2A-B2E1-44D7-9224-2E92BB34CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="416">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1280,12 +1279,15 @@
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>7/11,12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1530,7 +1532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,6 +1730,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2177,7 +2182,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2225,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2289,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2349,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2415,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2478,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2576,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2635,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2700,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2743,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2818,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +3004,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3070,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3128,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3194,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3250,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3325,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3368,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3434,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3490,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3588,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3651,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3695,7 +3700,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3712,25 +3717,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K582" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K582" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3742,13 +3747,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3757,14 +3762,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4068,7 +4073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4078,7 +4083,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4086,34 +4091,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A537" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A537" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B548" sqref="B548"/>
+      <selection pane="bottomLeft" activeCell="I548" sqref="I548"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4134,7 +4139,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4152,7 +4157,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4174,7 +4179,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4182,7 +4187,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4195,7 +4200,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4212,7 +4217,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4266,12 +4271,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.208999999999889</v>
+        <v>58.208999999999889</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4293,7 +4298,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34612</v>
       </c>
@@ -4313,7 +4318,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34639</v>
       </c>
@@ -4333,7 +4338,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4354,7 +4359,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4372,7 +4377,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A13,1)</f>
         <v>34700</v>
@@ -4393,7 +4398,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4414,7 +4419,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4435,7 +4440,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4456,7 +4461,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4477,7 +4482,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4498,7 +4503,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4519,7 +4524,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4546,7 +4551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4567,7 +4572,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4588,7 +4593,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <f>EDATE(A24,1)</f>
         <v>35004</v>
@@ -4609,7 +4614,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4634,7 +4639,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>48</v>
       </c>
@@ -4652,7 +4657,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A26,1)</f>
         <v>35065</v>
@@ -4673,7 +4678,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4694,7 +4699,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A40" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4715,7 +4720,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4736,7 +4741,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4757,7 +4762,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4778,7 +4783,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4799,7 +4804,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4826,7 +4831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A35,1)</f>
         <v>35309</v>
@@ -4853,7 +4858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>58</v>
@@ -4875,7 +4880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>35339</v>
@@ -4896,7 +4901,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4917,7 +4922,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -4938,7 +4943,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>49</v>
       </c>
@@ -4956,7 +4961,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35431</v>
@@ -4977,7 +4982,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -4998,7 +5003,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -5019,7 +5024,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -5040,7 +5045,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -5061,7 +5066,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -5088,7 +5093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>62</v>
@@ -5110,7 +5115,7 @@
         <v>35607</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35612</v>
@@ -5131,7 +5136,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -5152,7 +5157,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -5177,7 +5182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>62</v>
@@ -5199,7 +5204,7 @@
         <v>35703</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
@@ -5226,7 +5231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A53,1)</f>
         <v>35735</v>
@@ -5247,7 +5252,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -5272,7 +5277,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>50</v>
       </c>
@@ -5290,7 +5295,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>35796</v>
@@ -5311,7 +5316,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35827</v>
@@ -5338,7 +5343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A69" si="3">EDATE(A58,1)</f>
         <v>35855</v>
@@ -5359,7 +5364,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5380,7 +5385,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5407,7 +5412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5434,7 +5439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5455,7 +5460,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -5482,7 +5487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>73</v>
@@ -5502,7 +5507,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36039</v>
@@ -5527,7 +5532,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -5552,7 +5557,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -5577,7 +5582,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
@@ -5604,7 +5609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>76</v>
@@ -5624,7 +5629,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5644,7 +5649,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>51</v>
       </c>
@@ -5662,7 +5667,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A69,1)</f>
         <v>36161</v>
@@ -5689,7 +5694,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>62</v>
@@ -5711,7 +5716,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5731,7 +5736,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>36192</v>
@@ -5752,7 +5757,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A90" si="4">EDATE(A76,1)</f>
         <v>36220</v>
@@ -5779,7 +5784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -5806,7 +5811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>85</v>
@@ -5826,7 +5831,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36281</v>
@@ -5851,7 +5856,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A80,1)</f>
         <v>36312</v>
@@ -5878,7 +5883,7 @@
         <v>36313</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>87</v>
@@ -5898,7 +5903,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5918,7 +5923,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>90</v>
@@ -5940,7 +5945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A81,1)</f>
         <v>36342</v>
@@ -5961,7 +5966,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5982,7 +5987,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -6009,7 +6014,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>94</v>
@@ -6029,7 +6034,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36434</v>
@@ -6050,7 +6055,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -6071,7 +6076,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36495</v>
@@ -6096,7 +6101,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>52</v>
       </c>
@@ -6114,7 +6119,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36526</v>
@@ -6135,7 +6140,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6156,7 +6161,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A104" si="5">EDATE(A94,1)</f>
         <v>36586</v>
@@ -6177,7 +6182,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -6198,7 +6203,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -6219,7 +6224,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -6240,7 +6245,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -6267,7 +6272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -6294,7 +6299,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -6315,7 +6320,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -6336,7 +6341,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6357,7 +6362,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6382,7 +6387,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>53</v>
       </c>
@@ -6400,7 +6405,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36892</v>
@@ -6421,7 +6426,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>36923</v>
@@ -6442,7 +6447,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A117" si="6">EDATE(A107,1)</f>
         <v>36951</v>
@@ -6469,7 +6474,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6490,7 +6495,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -6517,7 +6522,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -6542,7 +6547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6563,7 +6568,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6584,7 +6589,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6605,7 +6610,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6626,7 +6631,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6647,7 +6652,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37226</v>
@@ -6672,7 +6677,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>100</v>
       </c>
@@ -6690,7 +6695,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6711,7 +6716,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A200" si="7">EDATE(A119,1)</f>
         <v>37288</v>
@@ -6732,7 +6737,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37316</v>
@@ -6753,7 +6758,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6774,7 +6779,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6795,7 +6800,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6816,7 +6821,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6843,7 +6848,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6864,7 +6869,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6891,7 +6896,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6918,7 +6923,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6939,7 +6944,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6964,7 +6969,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>102</v>
       </c>
@@ -6982,7 +6987,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37622</v>
@@ -7003,7 +7008,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>37653</v>
@@ -7024,7 +7029,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>37681</v>
@@ -7051,7 +7056,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="7"/>
         <v>37712</v>
@@ -7078,7 +7083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -7099,7 +7104,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -7120,7 +7125,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -7141,7 +7146,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -7162,7 +7167,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>37865</v>
@@ -7189,7 +7194,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>106</v>
@@ -7211,7 +7216,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37895</v>
@@ -7232,7 +7237,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -7253,7 +7258,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="7"/>
         <v>37956</v>
@@ -7274,7 +7279,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>108</v>
       </c>
@@ -7292,7 +7297,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37987</v>
@@ -7315,7 +7320,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>38018</v>
@@ -7336,7 +7341,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>38047</v>
@@ -7359,7 +7364,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -7386,7 +7391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -7413,7 +7418,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -7434,7 +7439,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -7461,7 +7466,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -7482,7 +7487,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -7509,7 +7514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>62</v>
@@ -7531,7 +7536,7 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38261</v>
@@ -7558,7 +7563,7 @@
         <v>38265</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>92</v>
@@ -7580,7 +7585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -7602,7 +7607,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38292</v>
@@ -7623,7 +7628,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A159,1)</f>
         <v>38322</v>
@@ -7648,7 +7653,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
         <v>112</v>
       </c>
@@ -7666,7 +7671,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38353</v>
@@ -7693,7 +7698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="7"/>
         <v>38384</v>
@@ -7714,7 +7719,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="7"/>
         <v>38412</v>
@@ -7735,7 +7740,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -7762,7 +7767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>87</v>
@@ -7782,7 +7787,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>68</v>
@@ -7804,7 +7809,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38473</v>
@@ -7831,7 +7836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -7858,7 +7863,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -7885,7 +7890,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -7912,7 +7917,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -7937,7 +7942,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -7964,7 +7969,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>126</v>
@@ -7986,7 +7991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38657</v>
@@ -8007,7 +8012,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A175,1)</f>
         <v>38687</v>
@@ -8028,7 +8033,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>128</v>
       </c>
@@ -8046,7 +8051,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38718</v>
@@ -8073,7 +8078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>70</v>
@@ -8095,7 +8100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -8117,7 +8122,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38749</v>
@@ -8138,7 +8143,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38777</v>
@@ -8165,7 +8170,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -8192,7 +8197,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -8219,7 +8224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>87</v>
@@ -8239,7 +8244,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38869</v>
@@ -8260,7 +8265,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -8287,7 +8292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -8308,7 +8313,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -8335,7 +8340,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -8362,7 +8367,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>68</v>
@@ -8384,7 +8389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>403</v>
@@ -8406,7 +8411,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39022</v>
@@ -8433,7 +8438,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -8458,7 +8463,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>92</v>
@@ -8480,7 +8485,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>58</v>
@@ -8502,7 +8507,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
         <v>145</v>
       </c>
@@ -8520,7 +8525,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A194,1)</f>
         <v>39083</v>
@@ -8541,7 +8546,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="7"/>
         <v>39114</v>
@@ -8562,7 +8567,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="7"/>
         <v>39142</v>
@@ -8589,7 +8594,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>39173</v>
@@ -8616,7 +8621,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>62</v>
@@ -8638,7 +8643,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>148</v>
@@ -8660,7 +8665,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>87</v>
@@ -8680,7 +8685,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>104</v>
@@ -8702,7 +8707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>62</v>
@@ -8724,7 +8729,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A201,1)</f>
         <v>39203</v>
@@ -8745,7 +8750,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" ref="A208:A352" si="8">EDATE(A207,1)</f>
         <v>39234</v>
@@ -8766,7 +8771,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -8793,7 +8798,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -8818,7 +8823,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>62</v>
@@ -8840,7 +8845,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39326</v>
@@ -8861,7 +8866,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -8882,7 +8887,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -8909,7 +8914,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>62</v>
@@ -8931,7 +8936,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>155</v>
@@ -8951,7 +8956,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A214,1)</f>
         <v>39417</v>
@@ -8978,7 +8983,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -9000,7 +9005,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>158</v>
       </c>
@@ -9018,7 +9023,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="51"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>39448</v>
@@ -9045,7 +9050,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>62</v>
@@ -9067,7 +9072,7 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
@@ -9092,7 +9097,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="8"/>
         <v>39508</v>
@@ -9113,7 +9118,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="8"/>
         <v>39539</v>
@@ -9140,7 +9145,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>87</v>
@@ -9160,7 +9165,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39569</v>
@@ -9181,7 +9186,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -9202,7 +9207,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="8"/>
         <v>39630</v>
@@ -9229,7 +9234,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>92</v>
@@ -9251,7 +9256,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39661</v>
@@ -9272,7 +9277,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="8"/>
         <v>39692</v>
@@ -9299,7 +9304,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="8"/>
         <v>39722</v>
@@ -9326,7 +9331,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>92</v>
@@ -9348,7 +9353,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39753</v>
@@ -9375,7 +9380,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>54</v>
@@ -9397,7 +9402,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39783</v>
@@ -9422,7 +9427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>168</v>
@@ -9442,7 +9447,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>126</v>
@@ -9462,7 +9467,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>169</v>
       </c>
@@ -9480,7 +9485,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39814</v>
@@ -9507,7 +9512,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>62</v>
@@ -9529,7 +9534,7 @@
         <v>39839</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>172</v>
@@ -9547,7 +9552,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>39845</v>
@@ -9572,7 +9577,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>87</v>
@@ -9592,7 +9597,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39873</v>
@@ -9619,7 +9624,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>62</v>
@@ -9641,7 +9646,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -9663,7 +9668,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>62</v>
@@ -9685,7 +9690,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>62</v>
@@ -9707,7 +9712,7 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>175</v>
@@ -9727,7 +9732,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A245,1)</f>
         <v>39904</v>
@@ -9752,7 +9757,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
@@ -9779,7 +9784,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>62</v>
@@ -9799,7 +9804,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -9819,7 +9824,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>180</v>
@@ -9839,7 +9844,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39965</v>
@@ -9866,7 +9871,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>181</v>
@@ -9886,7 +9891,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A256,1)</f>
         <v>39995</v>
@@ -9911,7 +9916,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -9938,7 +9943,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>62</v>
@@ -9960,7 +9965,7 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>62</v>
@@ -9982,7 +9987,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>62</v>
@@ -10004,7 +10009,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>185</v>
@@ -10024,7 +10029,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="51"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A259,1)</f>
         <v>40057</v>
@@ -10051,7 +10056,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>62</v>
@@ -10073,7 +10078,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>187</v>
@@ -10093,7 +10098,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>40087</v>
@@ -10120,7 +10125,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>62</v>
@@ -10142,7 +10147,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>68</v>
@@ -10164,7 +10169,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>92</v>
@@ -10186,7 +10191,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>188</v>
@@ -10206,7 +10211,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A267,1)</f>
         <v>40118</v>
@@ -10233,7 +10238,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>191</v>
@@ -10253,7 +10258,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40148</v>
@@ -10280,7 +10285,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>68</v>
@@ -10299,7 +10304,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>87</v>
@@ -10316,7 +10321,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>106</v>
@@ -10335,7 +10340,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>193</v>
       </c>
@@ -10350,7 +10355,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A274,1)</f>
         <v>40179</v>
@@ -10375,7 +10380,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>104</v>
@@ -10394,7 +10399,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>92</v>
@@ -10413,7 +10418,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>68</v>
@@ -10432,7 +10437,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>92</v>
@@ -10451,7 +10456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>87</v>
@@ -10468,7 +10473,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>199</v>
@@ -10485,7 +10490,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A279,1)</f>
         <v>40210</v>
@@ -10510,7 +10515,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>62</v>
@@ -10529,7 +10534,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>205</v>
@@ -10546,7 +10551,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
@@ -10573,7 +10578,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>62</v>
@@ -10592,7 +10597,7 @@
         <v>40254</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>104</v>
@@ -10614,7 +10619,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>207</v>
@@ -10631,7 +10636,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A289,1)</f>
         <v>40269</v>
@@ -10656,7 +10661,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>87</v>
@@ -10673,7 +10678,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>68</v>
@@ -10690,7 +10695,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>208</v>
@@ -10707,7 +10712,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A293,1)</f>
         <v>40299</v>
@@ -10734,7 +10739,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>211</v>
@@ -10754,7 +10759,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
@@ -10781,7 +10786,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>62</v>
@@ -10803,7 +10808,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>62</v>
@@ -10825,7 +10830,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>213</v>
@@ -10845,7 +10850,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="51"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A299,1)</f>
         <v>40360</v>
@@ -10872,7 +10877,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>92</v>
@@ -10894,7 +10899,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>216</v>
@@ -10914,7 +10919,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>40391</v>
@@ -10941,7 +10946,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>62</v>
@@ -10960,7 +10965,7 @@
         <v>40414</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>218</v>
@@ -10977,7 +10982,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
@@ -11006,7 +11011,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>220</v>
@@ -11025,7 +11030,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>222</v>
@@ -11042,7 +11047,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A309,1)</f>
         <v>40452</v>
@@ -11071,7 +11076,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>220</v>
@@ -11090,7 +11095,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>226</v>
@@ -11107,7 +11112,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11136,7 +11141,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>220</v>
@@ -11155,7 +11160,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -11172,7 +11177,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
@@ -11197,7 +11202,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
         <v>231</v>
       </c>
@@ -11215,7 +11220,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40544</v>
@@ -11240,7 +11245,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>234</v>
@@ -11260,7 +11265,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40575</v>
@@ -11285,7 +11290,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>236</v>
@@ -11305,7 +11310,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40603</v>
@@ -11330,7 +11335,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -11355,7 +11360,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -11380,7 +11385,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>40695</v>
@@ -11407,7 +11412,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>240</v>
@@ -11427,7 +11432,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40725</v>
@@ -11452,7 +11457,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -11477,7 +11482,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -11502,7 +11507,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -11527,7 +11532,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="8"/>
         <v>40848</v>
@@ -11554,7 +11559,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>247</v>
@@ -11574,7 +11579,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40878</v>
@@ -11599,7 +11604,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
         <v>249</v>
       </c>
@@ -11617,7 +11622,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40909</v>
@@ -11644,7 +11649,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>250</v>
@@ -11661,7 +11666,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>251</v>
@@ -11678,7 +11683,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40940</v>
@@ -11703,7 +11708,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="8"/>
         <v>40969</v>
@@ -11728,7 +11733,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="8"/>
         <v>41000</v>
@@ -11753,7 +11758,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -11780,7 +11785,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11799,7 +11804,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>254</v>
@@ -11816,7 +11821,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -11841,7 +11846,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -11868,7 +11873,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>141</v>
@@ -11885,7 +11890,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>92</v>
@@ -11904,7 +11909,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -11921,7 +11926,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A347,1)</f>
         <v>41122</v>
@@ -11946,7 +11951,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -11971,7 +11976,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>266</v>
@@ -11991,7 +11996,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41183</v>
@@ -12016,7 +12021,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A356" si="9">EDATE(A354,1)</f>
         <v>41214</v>
@@ -12037,7 +12042,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="9"/>
         <v>41244</v>
@@ -12062,7 +12067,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="48" t="s">
         <v>269</v>
       </c>
@@ -12080,7 +12085,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>41275</v>
@@ -12105,7 +12110,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f t="shared" ref="A359:A431" si="10">EDATE(A358,1)</f>
         <v>41306</v>
@@ -12130,7 +12135,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>68</v>
@@ -12152,7 +12157,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>92</v>
@@ -12174,7 +12179,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>274</v>
@@ -12194,7 +12199,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41334</v>
@@ -12219,7 +12224,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -12246,7 +12251,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>278</v>
@@ -12266,7 +12271,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41395</v>
@@ -12289,7 +12294,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>279</v>
@@ -12309,7 +12314,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41426</v>
@@ -12336,7 +12341,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>281</v>
@@ -12356,7 +12361,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41456</v>
@@ -12381,7 +12386,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -12406,7 +12411,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -12431,7 +12436,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="10"/>
         <v>41548</v>
@@ -12456,7 +12461,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="10"/>
         <v>41579</v>
@@ -12481,7 +12486,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -12506,7 +12511,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="48" t="s">
         <v>282</v>
       </c>
@@ -12524,7 +12529,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41640</v>
@@ -12549,7 +12554,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="10"/>
         <v>41671</v>
@@ -12574,7 +12579,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f t="shared" si="10"/>
         <v>41699</v>
@@ -12599,7 +12604,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -12624,7 +12629,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -12649,7 +12654,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -12674,7 +12679,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -12699,7 +12704,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -12724,7 +12729,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -12749,7 +12754,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="10"/>
         <v>41913</v>
@@ -12774,7 +12779,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="10"/>
         <v>41944</v>
@@ -12799,7 +12804,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -12824,7 +12829,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>304</v>
@@ -12846,7 +12851,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="48" t="s">
         <v>294</v>
       </c>
@@ -12864,7 +12869,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42005</v>
@@ -12889,7 +12894,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>62</v>
@@ -12911,7 +12916,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>42036</v>
@@ -12936,7 +12941,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>68</v>
@@ -12958,7 +12963,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42064</v>
@@ -12983,7 +12988,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f t="shared" si="10"/>
         <v>42095</v>
@@ -13008,7 +13013,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>68</v>
@@ -13030,7 +13035,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42125</v>
@@ -13055,7 +13060,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>75</v>
@@ -13077,7 +13082,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42156</v>
@@ -13102,7 +13107,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>104</v>
@@ -13124,7 +13129,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42186</v>
@@ -13149,7 +13154,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="10"/>
         <v>42217</v>
@@ -13174,7 +13179,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>45</v>
@@ -13196,7 +13201,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42248</v>
@@ -13221,7 +13226,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>320</v>
@@ -13243,7 +13248,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>42278</v>
@@ -13268,7 +13273,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>62</v>
@@ -13290,7 +13295,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42309</v>
@@ -13315,7 +13320,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>324</v>
@@ -13337,7 +13342,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>42339</v>
@@ -13362,7 +13367,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
         <v>302</v>
       </c>
@@ -13380,7 +13385,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>42370</v>
@@ -13405,7 +13410,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>75</v>
@@ -13427,7 +13432,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42401</v>
@@ -13452,7 +13457,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>92</v>
@@ -13474,7 +13479,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>62</v>
@@ -13496,7 +13501,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>42430</v>
@@ -13521,7 +13526,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A418,1)</f>
         <v>42461</v>
@@ -13546,7 +13551,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="10"/>
         <v>42491</v>
@@ -13571,7 +13576,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="10"/>
         <v>42522</v>
@@ -13596,7 +13601,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="10"/>
         <v>42552</v>
@@ -13621,7 +13626,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="10"/>
         <v>42583</v>
@@ -13646,7 +13651,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>337</v>
@@ -13666,7 +13671,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42614</v>
@@ -13691,7 +13696,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="10"/>
         <v>42644</v>
@@ -13718,7 +13723,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>62</v>
@@ -13740,7 +13745,7 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>68</v>
@@ -13762,7 +13767,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>341</v>
@@ -13782,7 +13787,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>42675</v>
@@ -13807,7 +13812,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="10"/>
         <v>42705</v>
@@ -13832,7 +13837,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>303</v>
       </c>
@@ -13850,7 +13855,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A431,1)</f>
         <v>42736</v>
@@ -13871,7 +13876,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A433,1)</f>
         <v>42767</v>
@@ -13896,7 +13901,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" ref="A435:A452" si="11">EDATE(A434,1)</f>
         <v>42795</v>
@@ -13921,7 +13926,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="11"/>
         <v>42826</v>
@@ -13948,7 +13953,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>87</v>
@@ -13965,7 +13970,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>92</v>
@@ -13984,7 +13989,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>141</v>
@@ -14001,7 +14006,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>350</v>
@@ -14018,7 +14023,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>42856</v>
@@ -14043,7 +14048,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f t="shared" si="11"/>
         <v>42887</v>
@@ -14070,7 +14075,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>62</v>
@@ -14089,7 +14094,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>353</v>
@@ -14106,7 +14111,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f>EDATE(A442,1)</f>
         <v>42917</v>
@@ -14131,7 +14136,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="11"/>
         <v>42948</v>
@@ -14156,7 +14161,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="11"/>
         <v>42979</v>
@@ -14183,7 +14188,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>62</v>
@@ -14205,7 +14210,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>357</v>
@@ -14225,7 +14230,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="51"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -14250,7 +14255,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f>EDATE(A450,1)</f>
         <v>43040</v>
@@ -14271,7 +14276,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="11"/>
         <v>43070</v>
@@ -14292,7 +14297,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="48" t="s">
         <v>359</v>
       </c>
@@ -14310,7 +14315,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>43101</v>
@@ -14337,7 +14342,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>62</v>
@@ -14357,7 +14362,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>63</v>
@@ -14377,7 +14382,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43132</v>
@@ -14404,7 +14409,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A457,1)</f>
         <v>43160</v>
@@ -14425,7 +14430,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A460" si="12">EDATE(A458,1)</f>
         <v>43191</v>
@@ -14446,7 +14451,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="12"/>
         <v>43221</v>
@@ -14473,7 +14478,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>62</v>
@@ -14495,7 +14500,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>363</v>
@@ -14515,7 +14520,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43252</v>
@@ -14540,7 +14545,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f>EDATE(A463,1)</f>
         <v>43282</v>
@@ -14565,7 +14570,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f>EDATE(A464,1)</f>
         <v>43313</v>
@@ -14590,7 +14595,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f t="shared" ref="A466:A470" si="13">EDATE(A465,1)</f>
         <v>43344</v>
@@ -14615,7 +14620,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="13"/>
         <v>43374</v>
@@ -14640,7 +14645,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="52" t="s">
         <v>386</v>
@@ -14660,7 +14665,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>43405</v>
@@ -14685,7 +14690,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="13"/>
         <v>43435</v>
@@ -14710,7 +14715,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="48" t="s">
         <v>371</v>
       </c>
@@ -14728,7 +14733,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>43466</v>
@@ -14749,7 +14754,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A472,1)</f>
         <v>43497</v>
@@ -14774,7 +14779,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>87</v>
@@ -14794,7 +14799,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>141</v>
@@ -14814,7 +14819,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A473,1)</f>
         <v>43525</v>
@@ -14839,7 +14844,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A484" si="14">EDATE(A476,1)</f>
         <v>43556</v>
@@ -14866,7 +14871,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>376</v>
@@ -14884,12 +14889,12 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.208999999999889</v>
+        <v>58.208999999999889</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43586</v>
@@ -14914,7 +14919,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" si="14"/>
         <v>43617</v>
@@ -14939,7 +14944,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f t="shared" si="14"/>
         <v>43647</v>
@@ -14964,7 +14969,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f t="shared" si="14"/>
         <v>43678</v>
@@ -14989,7 +14994,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="14"/>
         <v>43709</v>
@@ -15014,7 +15019,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" si="14"/>
         <v>43739</v>
@@ -15039,7 +15044,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>383</v>
@@ -15059,7 +15064,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f>EDATE(A484,1)</f>
         <v>43770</v>
@@ -15084,7 +15089,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A486,1)</f>
         <v>43800</v>
@@ -15109,7 +15114,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>388</v>
@@ -15129,7 +15134,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>389</v>
@@ -15149,7 +15154,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
         <v>391</v>
       </c>
@@ -15167,7 +15172,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f>EDATE(A487,1)</f>
         <v>43831</v>
@@ -15192,7 +15197,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>63</v>
@@ -15212,7 +15217,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>395</v>
@@ -15232,7 +15237,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="52"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>92</v>
@@ -15254,7 +15259,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f>EDATE(A491,1)</f>
         <v>43862</v>
@@ -15279,7 +15284,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A504" si="15">EDATE(A495,1)</f>
         <v>43891</v>
@@ -15300,7 +15305,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f t="shared" si="15"/>
         <v>43922</v>
@@ -15321,7 +15326,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f t="shared" si="15"/>
         <v>43952</v>
@@ -15342,7 +15347,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f t="shared" si="15"/>
         <v>43983</v>
@@ -15363,7 +15368,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="15"/>
         <v>44013</v>
@@ -15384,7 +15389,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="15"/>
         <v>44044</v>
@@ -15405,7 +15410,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="15"/>
         <v>44075</v>
@@ -15426,7 +15431,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>44105</v>
@@ -15447,7 +15452,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" si="15"/>
         <v>44136</v>
@@ -15468,7 +15473,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>44166</v>
@@ -15493,7 +15498,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="48" t="s">
         <v>398</v>
       </c>
@@ -15511,7 +15516,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>44197</v>
@@ -15532,7 +15537,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f>EDATE(A507,1)</f>
         <v>44228</v>
@@ -15553,7 +15558,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f t="shared" ref="A509:A518" si="16">EDATE(A508,1)</f>
         <v>44256</v>
@@ -15574,7 +15579,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" si="16"/>
         <v>44287</v>
@@ -15595,7 +15600,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="16"/>
         <v>44317</v>
@@ -15616,7 +15621,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f t="shared" si="16"/>
         <v>44348</v>
@@ -15637,7 +15642,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="16"/>
         <v>44378</v>
@@ -15658,7 +15663,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f t="shared" si="16"/>
         <v>44409</v>
@@ -15679,7 +15684,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f t="shared" si="16"/>
         <v>44440</v>
@@ -15700,7 +15705,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f t="shared" si="16"/>
         <v>44470</v>
@@ -15721,7 +15726,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f t="shared" si="16"/>
         <v>44501</v>
@@ -15742,7 +15747,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f t="shared" si="16"/>
         <v>44531</v>
@@ -15767,7 +15772,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>47</v>
@@ -15787,7 +15792,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
         <v>400</v>
       </c>
@@ -15805,7 +15810,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>44562</v>
@@ -15826,7 +15831,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A521,1)</f>
         <v>44593</v>
@@ -15847,7 +15852,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f t="shared" ref="A523:A528" si="17">EDATE(A522,1)</f>
         <v>44621</v>
@@ -15868,7 +15873,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f t="shared" si="17"/>
         <v>44652</v>
@@ -15895,7 +15900,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>62</v>
@@ -15914,7 +15919,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>44682</v>
@@ -15935,7 +15940,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f t="shared" si="17"/>
         <v>44713</v>
@@ -15956,7 +15961,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <f t="shared" si="17"/>
         <v>44743</v>
@@ -15983,7 +15988,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44774</v>
       </c>
@@ -16003,7 +16008,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44805</v>
       </c>
@@ -16023,7 +16028,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44835</v>
       </c>
@@ -16049,7 +16054,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>389</v>
@@ -16071,7 +16076,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44866</v>
       </c>
@@ -16091,7 +16096,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44896</v>
       </c>
@@ -16115,7 +16120,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
         <v>404</v>
       </c>
@@ -16133,7 +16138,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44927</v>
       </c>
@@ -16159,7 +16164,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>68</v>
@@ -16181,7 +16186,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44958</v>
       </c>
@@ -16207,7 +16212,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>87</v>
@@ -16227,7 +16232,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44986</v>
       </c>
@@ -16253,7 +16258,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>68</v>
@@ -16275,7 +16280,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45017</v>
       </c>
@@ -16301,7 +16306,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45047</v>
       </c>
@@ -16327,7 +16332,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45078</v>
       </c>
@@ -16353,7 +16358,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>62</v>
@@ -16375,7 +16380,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>87</v>
@@ -16395,7 +16400,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>62</v>
@@ -16417,11 +16422,13 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45108</v>
       </c>
-      <c r="B548" s="20"/>
+      <c r="B548" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
       <c r="E548" s="9"/>
@@ -16430,12 +16437,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H548" s="39"/>
+      <c r="H548" s="39">
+        <v>2</v>
+      </c>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
-    </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K548" s="68" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45139</v>
       </c>
@@ -16453,7 +16464,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45170</v>
       </c>
@@ -16471,7 +16482,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45200</v>
       </c>
@@ -16489,7 +16500,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45231</v>
       </c>
@@ -16507,7 +16518,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45261</v>
       </c>
@@ -16525,7 +16536,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45292</v>
       </c>
@@ -16543,7 +16554,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45323</v>
       </c>
@@ -16561,7 +16572,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45352</v>
       </c>
@@ -16579,7 +16590,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>45383</v>
       </c>
@@ -16597,7 +16608,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>45413</v>
       </c>
@@ -16615,7 +16626,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>45444</v>
       </c>
@@ -16633,7 +16644,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45474</v>
       </c>
@@ -16651,7 +16662,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45505</v>
       </c>
@@ -16669,7 +16680,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>45536</v>
       </c>
@@ -16687,7 +16698,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45566</v>
       </c>
@@ -16705,7 +16716,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45597</v>
       </c>
@@ -16723,7 +16734,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45627</v>
       </c>
@@ -16741,7 +16752,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45658</v>
       </c>
@@ -16759,7 +16770,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45689</v>
       </c>
@@ -16777,7 +16788,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45717</v>
       </c>
@@ -16795,7 +16806,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45748</v>
       </c>
@@ -16813,7 +16824,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45778</v>
       </c>
@@ -16831,7 +16842,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45809</v>
       </c>
@@ -16849,7 +16860,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16865,7 +16876,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16881,7 +16892,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16897,7 +16908,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16913,7 +16924,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16929,7 +16940,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16945,7 +16956,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16961,7 +16972,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16977,7 +16988,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16993,7 +17004,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -17009,7 +17020,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="41"/>
       <c r="B582" s="15"/>
       <c r="C582" s="42"/>
@@ -17040,10 +17051,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17069,7 +17080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17077,21 +17088,21 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -17104,7 +17115,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17133,7 +17144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17157,17 +17168,17 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17188,7 +17199,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17215,7 +17226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17241,7 +17252,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17267,7 +17278,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17293,7 +17304,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17319,7 +17330,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17345,7 +17356,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17371,7 +17382,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17397,7 +17408,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17417,7 +17428,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17437,7 +17448,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17457,7 +17468,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17478,7 +17489,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17499,7 +17510,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17520,7 +17531,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17541,7 +17552,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17562,7 +17573,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17583,7 +17594,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17604,7 +17615,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17625,7 +17636,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17646,7 +17657,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17667,7 +17678,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17688,7 +17699,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17709,7 +17720,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17730,7 +17741,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17751,7 +17762,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17772,7 +17783,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17793,7 +17804,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17814,7 +17825,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17835,7 +17846,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17856,7 +17867,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17877,7 +17888,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17886,7 +17897,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17895,7 +17906,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17904,7 +17915,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17913,7 +17924,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17922,7 +17933,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17931,7 +17942,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17940,7 +17951,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17949,7 +17960,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17958,7 +17969,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17967,7 +17978,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17976,7 +17987,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17985,7 +17996,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17994,7 +18005,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18003,7 +18014,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18012,7 +18023,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18021,7 +18032,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18030,7 +18041,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18039,7 +18050,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18048,7 +18059,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18057,7 +18068,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18066,7 +18077,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18075,7 +18086,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18084,7 +18095,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18093,7 +18104,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18102,7 +18113,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18111,7 +18122,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18120,7 +18131,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18129,7 +18140,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18138,7 +18149,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
